--- a/Documentação/Sprint 3/Entrega/DAILY_SCRUM_MEETINGS_GRUPO_2-1.xlsx
+++ b/Documentação/Sprint 3/Entrega/DAILY_SCRUM_MEETINGS_GRUPO_2-1.xlsx
@@ -1,26 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carol\Documents\Upskill\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{48E5DB60-8772-40D8-BB9B-14EB8D9B624E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16DC8E89-40E3-4E25-A7A7-E9F3DE74982D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>SPRINT 3</t>
   </si>
@@ -41,10 +52,22 @@
 11 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Leitura e análise do enunciado.</t>
+  </si>
+  <si>
     <t>1. Leitura e análise do enunciado</t>
   </si>
   <si>
+    <t>2. Documentação UC9</t>
+  </si>
+  <si>
+    <t>2. Documentação UC08</t>
+  </si>
+  <si>
     <t>2. Documentação UC07</t>
+  </si>
+  <si>
+    <t>3. Dúvida relativa à validação da candidatura à tarefa</t>
   </si>
   <si>
     <t>3. Dúvidas relativas ao registo do Freelancer</t>
@@ -54,10 +77,24 @@
 12 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Documentação UC9
+        Requisitos funcionais e não funcionais
+        Diagrama de casos de uso</t>
+  </si>
+  <si>
+    <t>1. Documentação UC10</t>
+  </si>
+  <si>
     <t>1. Documentação UC07</t>
   </si>
   <si>
+    <t>2. Plano de testes UC9, Plano de testes UC10, Atualizar  grau proficiencia</t>
+  </si>
+  <si>
     <t>2. Continuação da elaboração da documentação UC07</t>
+  </si>
+  <si>
+    <t>3. Dúvidas relativas ao enunciado (será feita uma análise em conjunto com a equipa)</t>
   </si>
   <si>
     <t>3. Dúvidas relativa ao enunciado, a serem discutidas em equipa</t>
@@ -67,10 +104,25 @@
 17 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Conclusão dos planos de testes UC9 e UC10</t>
+  </si>
+  <si>
+    <t>1. Classes em Java de Ucs 7 e 8.</t>
+  </si>
+  <si>
     <t>1. Continuação da elaboração da documentação UC07</t>
   </si>
   <si>
+    <t>2. GUI Graus de proficiência + atualizar o código implementado</t>
+  </si>
+  <si>
+    <t>2. Realização de Testes para os UCs 7 e 8.</t>
+  </si>
+  <si>
     <t>2. Planos de testes UC07 e atualização de documentação</t>
+  </si>
+  <si>
+    <t>3. repensar usabilidade das janelas</t>
   </si>
   <si>
     <t>3. Dúvidas na interpretação do enunciado, a serem discutidas em equipa</t>
@@ -80,30 +132,64 @@
 18 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. GUI Grau proficiencia</t>
+  </si>
+  <si>
+    <t>1. Revisão e ajustes completos para todas as classes para modelo MVC, tanto para modelo DB quanto InMemory dos UC1 ao UC6</t>
+  </si>
+  <si>
     <t>1. Planos de testes UC07 e atualização de documentação</t>
   </si>
   <si>
+    <t xml:space="preserve">2. atualizar repositorios grau proficiencia+ fazer alterações na gui AdicionarCompetenciaTecnica
+</t>
+  </si>
+  <si>
     <t>2. Análise das interfaces gráficas existentes e repensar de alterações de implementação necessárias</t>
+  </si>
+  <si>
+    <t>3. dificuldades em visualizar como são inseridos os graus de proficiencia na competencia tecnica</t>
   </si>
   <si>
     <t>SEXTA-FEIRA
 19 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. atualizar repositorios grau proficiencia+ fazer alterações na gui AdicionarCompetenciaTecnica</t>
+  </si>
+  <si>
     <t>1. Análise das interfaces gráficas existentes e repensar de alterações de implementação necessárias</t>
   </si>
   <si>
+    <t>2. Inicio implementacao uc9</t>
+  </si>
+  <si>
     <t>2. Pesquisa e testes sobre forma de implementação de design nas interfaces gráficas</t>
+  </si>
+  <si>
+    <t>3. dúvidas relativas ao diagrama de sequencia para verificar anúncios elegíveis</t>
   </si>
   <si>
     <t>SEGUNDA-FEIRA
 22 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Inicio Implementacao UC9</t>
+  </si>
+  <si>
+    <t>1. Revisão e criação de classes para os UCs 7 a 9.</t>
+  </si>
+  <si>
     <t>1. Pesquisa e testes sobre forma de implementação de design nas interfaces gráficas</t>
   </si>
   <si>
+    <t>2. Implementação de consulta de areas actividade, competencias tecnicas e categorias</t>
+  </si>
+  <si>
     <t>2. Implementação de testes no Scene Builder nas interfaces gráficas antigas e novas</t>
+  </si>
+  <si>
+    <t>3. duvidas relativas a consultar a partir da list view</t>
   </si>
   <si>
     <t>3. Dúvidas relativas a soluções de design propostas, a serem discutidas em equipa</t>
@@ -113,20 +199,44 @@
 23 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Implementação de consulta de areas actividade, competencias tecnicas e categorias</t>
+  </si>
+  <si>
+    <t>1. Interface Gráfica UC7 e implementação em Java das classes correspondentes em DB e In Memory</t>
+  </si>
+  <si>
     <t>1. Implementação de testes no Scene Builder nas interfaces gráficas antigas e novas</t>
   </si>
   <si>
+    <t>2. Implementação de repositorios base de dados</t>
+  </si>
+  <si>
     <t>2. Criação de ficheiros de formatação CSS para cada interface criado</t>
+  </si>
+  <si>
+    <t>3. dificuldades relativas a base de dados</t>
   </si>
   <si>
     <t>QUARTA-FEIRA
 24 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Implementação de repositorios base de dados</t>
+  </si>
+  <si>
+    <t>1. Interface Gráfica UC7 e UC8, e implementação em Java das classes correspondentes em DB e In Memory</t>
+  </si>
+  <si>
     <t>1. Criação de ficheiros de formatação CSS para cada interface criado</t>
   </si>
   <si>
+    <t>2. Inicio implementacao uc8</t>
+  </si>
+  <si>
     <t>2. Continuação da implementação dos ficheiros de formatação CSS nas interfaces gráficas</t>
+  </si>
+  <si>
+    <t>3. Dificuldades em filtrar as tarefas publicadas</t>
   </si>
   <si>
     <t>3. Dúvidas relativas à implementação das interfaces gráficas e formatação com CSS, a serem discutidas em equipa</t>
@@ -136,53 +246,38 @@
 25 FEVEREIRO</t>
   </si>
   <si>
+    <t>1. Inicio implementacao uc8</t>
+  </si>
+  <si>
+    <t>1. Interface Gráfica UC10 e implementação em Java de Classes dos Ucs 9 e 10</t>
+  </si>
+  <si>
     <t>1. Implementação dos ficheiros de formatação CSS nas interfaces gráficas</t>
   </si>
   <si>
+    <t>2. Implementacao uc8, implementação uc9</t>
+  </si>
+  <si>
+    <t>2. Implementação em Java para esquema de cores em CSS nas janelas da aplicação</t>
+  </si>
+  <si>
     <t>2. Javadoc; preparação do relatório final de entrega com análise e design do Sprint 3</t>
   </si>
   <si>
+    <t>3. dificuldades em preencher tableView</t>
+  </si>
+  <si>
     <t>3. Conflitos entre o Scene Builder e os ficheiros CSS</t>
   </si>
   <si>
     <t>QUESTIONS | 1: What did you do yesterday? | 2: What will you do today? | 3: Are there any blockers or impediments preventing you from doing your work?</t>
-  </si>
-  <si>
-    <t>2. Documentação UC08</t>
-  </si>
-  <si>
-    <t>1. Documentação UC10</t>
-  </si>
-  <si>
-    <t>1. Interface Gráfica UC10 e implementação em Java de Classes dos Ucs 9 e 10</t>
-  </si>
-  <si>
-    <t>2. Implementação em Java para esquema de cores em CSS nas janelas da aplicação</t>
-  </si>
-  <si>
-    <t>1. Classes em Java de Ucs 7 e 8.</t>
-  </si>
-  <si>
-    <t>1. Interface Gráfica UC7 e implementação em Java das classes correspondentes em DB e In Memory</t>
-  </si>
-  <si>
-    <t>1. Interface Gráfica UC7 e UC8, e implementação em Java das classes correspondentes em DB e In Memory</t>
-  </si>
-  <si>
-    <t>1. Revisão e ajustes completos para todas as classes para modelo MVC, tanto para modelo DB quanto InMemory dos UC1 ao UC6</t>
-  </si>
-  <si>
-    <t>1. Revisão e criação de classes para os UCs 7 a 9.</t>
-  </si>
-  <si>
-    <t>2. Realização de Testes para os UCs 7 e 8.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -328,7 +423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,9 +443,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -362,8 +454,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,20 +676,20 @@
   </sheetPr>
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
     <col min="2" max="2" width="28.85546875" customWidth="1"/>
     <col min="3" max="3" width="30.140625" customWidth="1"/>
     <col min="4" max="4" width="29.140625" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -614,299 +706,353 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:5" ht="25.5">
+      <c r="A2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="13"/>
-      <c r="B3" s="6"/>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="12.75">
+      <c r="A3" s="12"/>
+      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" s="6"/>
-      <c r="D3" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="14"/>
-      <c r="B4" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="25.5">
+      <c r="A4" s="13"/>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C4" s="6"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="51">
+      <c r="A5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="13"/>
-      <c r="B6" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="38.25">
+      <c r="A6" s="12"/>
+      <c r="B6" s="6" t="s">
+        <v>17</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="14"/>
-      <c r="B7" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="51">
+      <c r="A7" s="13"/>
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="6"/>
+      <c r="E7" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="25.5">
+      <c r="A8" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13"/>
-      <c r="B9" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5">
+      <c r="A9" s="12"/>
+      <c r="B9" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="14"/>
-      <c r="B10" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="38.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="6" t="s">
+        <v>28</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="63.75">
+      <c r="A11" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13"/>
-      <c r="B12" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="63.75">
+      <c r="A12" s="12"/>
+      <c r="B12" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="14"/>
-      <c r="B13" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="51">
+      <c r="A13" s="13"/>
+      <c r="B13" s="6" t="s">
+        <v>36</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="12" t="s">
+      <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="6"/>
+    </row>
+    <row r="14" spans="1:5" ht="63.75">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="C14" s="6"/>
-      <c r="D14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="13"/>
-      <c r="B15" s="6"/>
+      <c r="D14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="38.25">
+      <c r="A15" s="12"/>
+      <c r="B15" s="6" t="s">
+        <v>40</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="14"/>
-      <c r="B16" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="38.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="38.25">
+      <c r="A17" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="51">
+      <c r="A18" s="12"/>
+      <c r="B18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13"/>
-      <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="14"/>
-      <c r="B19" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="38.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A20" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="51">
+      <c r="A20" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>52</v>
+      </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="13"/>
-      <c r="B21" s="6"/>
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="38.25">
+      <c r="A21" s="12"/>
+      <c r="B21" s="6" t="s">
+        <v>55</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="14"/>
-      <c r="B22" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="38.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="6" t="s">
+        <v>57</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="51">
+      <c r="A23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13"/>
-      <c r="B24" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="51">
+      <c r="A24" s="12"/>
+      <c r="B24" s="6" t="s">
+        <v>62</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="A25" s="14"/>
-      <c r="B25" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="51">
+      <c r="A25" s="13"/>
+      <c r="B25" s="6" t="s">
+        <v>64</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="38.25">
+      <c r="A26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="38.25">
+      <c r="A27" s="12"/>
+      <c r="B27" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="25.5">
+      <c r="A28" s="13"/>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
+      <c r="E28" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="9">
